--- a/_DOCUMENTS_/Module.xlsx
+++ b/_DOCUMENTS_/Module.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OLD SYSTEM" sheetId="1" r:id="rId1"/>
     <sheet name="PROPOSED DESIGN" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="180">
   <si>
     <t>ADMIN MODULE</t>
   </si>
@@ -230,9 +231,6 @@
     <t>Catat Mutasi</t>
   </si>
   <si>
-    <t>Gabung Data -&gt; ??</t>
-  </si>
-  <si>
     <t>Edit Mutasi</t>
   </si>
   <si>
@@ -428,9 +426,6 @@
     <t>Pilih Pelanggan</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Kas Kasir</t>
   </si>
   <si>
@@ -486,6 +481,81 @@
   </si>
   <si>
     <t>USB EXPORT</t>
+  </si>
+  <si>
+    <t>CASHIER APP</t>
+  </si>
+  <si>
+    <t>ADMIN APP</t>
+  </si>
+  <si>
+    <t>ADMIN UTAMA</t>
+  </si>
+  <si>
+    <t>ADMIN GUDANG</t>
+  </si>
+  <si>
+    <t>ADMIN FINANCE</t>
+  </si>
+  <si>
+    <t>OWNER, FULL ACCESS</t>
+  </si>
+  <si>
+    <t>REKAP HARIAN</t>
+  </si>
+  <si>
+    <t>STOK MUTASI KELUAR MASUK BARANG</t>
+  </si>
+  <si>
+    <t>RETUR JUAL / BELI</t>
+  </si>
+  <si>
+    <t>ADMIN JUAL BELI</t>
+  </si>
+  <si>
+    <t>MIRIP OWNER, TANPA USER MANAGEMENT</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>ADMIN TAX</t>
+  </si>
+  <si>
+    <t>JURNAL</t>
+  </si>
+  <si>
+    <t>LAPORAN PENERIMAAN HARIAN TERKONDISI</t>
+  </si>
+  <si>
+    <t>LAPORAN KEUANGAN TERKONDISI</t>
+  </si>
+  <si>
+    <t>MASTER BARANG</t>
+  </si>
+  <si>
+    <t>PEGANG DUIT, TANPA BISA JUAL / BELI</t>
+  </si>
+  <si>
+    <t>CUMA NGURUSIN BARANG, TANPA PEGANG DUIT</t>
+  </si>
+  <si>
+    <t>DISCOUNT 2 MACAM, PERSEN DAN TUNAI</t>
+  </si>
+  <si>
+    <t>MDI SUPPORTED</t>
+  </si>
+  <si>
+    <t>TABLE DISPLAY EMPTY, DISPLAYED ONLY AFTER USER CHOOSE THE FILTER</t>
+  </si>
+  <si>
+    <t>Ngeluarkan drawer kasir</t>
+  </si>
+  <si>
+    <t>Gabung Data -&gt; Import Data dr textfile (roughly)</t>
+  </si>
+  <si>
+    <t>ACCESS USER BY GROUP</t>
   </si>
 </sst>
 </file>
@@ -829,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F195"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,12 +1352,12 @@
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
@@ -1297,7 +1367,7 @@
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
@@ -1307,22 +1377,22 @@
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.25">
@@ -1332,7 +1402,7 @@
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.25">
@@ -1342,17 +1412,17 @@
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.25">
@@ -1362,17 +1432,17 @@
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.25">
@@ -1382,17 +1452,17 @@
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.25">
@@ -1402,172 +1472,172 @@
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.25">
@@ -1582,82 +1652,82 @@
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,17 +1737,17 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,7 +1757,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,12 +1767,12 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -1712,32 +1782,32 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,7 +1817,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,7 +1827,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,17 +1837,17 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1886,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,27 +1896,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,27 +1931,27 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1891,7 +1961,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,17 +2011,17 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,22 +2051,22 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2021,47 +2091,47 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,7 +2141,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,7 +2151,143 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/_DOCUMENTS_/Module.xlsx
+++ b/_DOCUMENTS_/Module.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OLD SYSTEM" sheetId="1" r:id="rId1"/>
     <sheet name="PROPOSED DESIGN" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="157">
   <si>
     <t>ADMIN MODULE</t>
   </si>
@@ -231,6 +230,9 @@
     <t>Catat Mutasi</t>
   </si>
   <si>
+    <t>Gabung Data -&gt; ??</t>
+  </si>
+  <si>
     <t>Edit Mutasi</t>
   </si>
   <si>
@@ -426,6 +428,9 @@
     <t>Pilih Pelanggan</t>
   </si>
   <si>
+    <t>???</t>
+  </si>
+  <si>
     <t>Kas Kasir</t>
   </si>
   <si>
@@ -481,81 +486,6 @@
   </si>
   <si>
     <t>USB EXPORT</t>
-  </si>
-  <si>
-    <t>CASHIER APP</t>
-  </si>
-  <si>
-    <t>ADMIN APP</t>
-  </si>
-  <si>
-    <t>ADMIN UTAMA</t>
-  </si>
-  <si>
-    <t>ADMIN GUDANG</t>
-  </si>
-  <si>
-    <t>ADMIN FINANCE</t>
-  </si>
-  <si>
-    <t>OWNER, FULL ACCESS</t>
-  </si>
-  <si>
-    <t>REKAP HARIAN</t>
-  </si>
-  <si>
-    <t>STOK MUTASI KELUAR MASUK BARANG</t>
-  </si>
-  <si>
-    <t>RETUR JUAL / BELI</t>
-  </si>
-  <si>
-    <t>ADMIN JUAL BELI</t>
-  </si>
-  <si>
-    <t>MIRIP OWNER, TANPA USER MANAGEMENT</t>
-  </si>
-  <si>
-    <t>TAX</t>
-  </si>
-  <si>
-    <t>ADMIN TAX</t>
-  </si>
-  <si>
-    <t>JURNAL</t>
-  </si>
-  <si>
-    <t>LAPORAN PENERIMAAN HARIAN TERKONDISI</t>
-  </si>
-  <si>
-    <t>LAPORAN KEUANGAN TERKONDISI</t>
-  </si>
-  <si>
-    <t>MASTER BARANG</t>
-  </si>
-  <si>
-    <t>PEGANG DUIT, TANPA BISA JUAL / BELI</t>
-  </si>
-  <si>
-    <t>CUMA NGURUSIN BARANG, TANPA PEGANG DUIT</t>
-  </si>
-  <si>
-    <t>DISCOUNT 2 MACAM, PERSEN DAN TUNAI</t>
-  </si>
-  <si>
-    <t>MDI SUPPORTED</t>
-  </si>
-  <si>
-    <t>TABLE DISPLAY EMPTY, DISPLAYED ONLY AFTER USER CHOOSE THE FILTER</t>
-  </si>
-  <si>
-    <t>Ngeluarkan drawer kasir</t>
-  </si>
-  <si>
-    <t>Gabung Data -&gt; Import Data dr textfile (roughly)</t>
-  </si>
-  <si>
-    <t>ACCESS USER BY GROUP</t>
   </si>
 </sst>
 </file>
@@ -899,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F195"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E23"/>
+    <sheetView topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,12 +1282,12 @@
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
@@ -1367,7 +1297,7 @@
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
@@ -1377,22 +1307,22 @@
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.25">
@@ -1402,7 +1332,7 @@
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.25">
@@ -1412,17 +1342,17 @@
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.25">
@@ -1432,17 +1362,17 @@
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.25">
@@ -1452,17 +1382,17 @@
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.25">
@@ -1472,172 +1402,172 @@
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.25">
@@ -1652,82 +1582,82 @@
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,17 +1667,17 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,7 +1687,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,12 +1697,12 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -1782,32 +1712,32 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,7 +1747,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -1827,7 +1757,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -1837,17 +1767,17 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1864,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,7 +1816,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,27 +1826,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1931,27 +1861,27 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1961,7 +1891,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2011,17 +1941,17 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,22 +1981,22 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,47 +2021,47 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,7 +2071,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,143 +2081,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
